--- a/report moi tuan/tuan 8/Book1.xlsx
+++ b/report moi tuan/tuan 8/Book1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thien\Desktop\project management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\son long\Documents\PM---Group-10\report moi tuan\tuan 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test cases" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="470">
   <si>
     <t>ID</t>
   </si>
@@ -1385,18 +1385,6 @@
     <t>08-010</t>
   </si>
   <si>
-    <t>06-007</t>
-  </si>
-  <si>
-    <t>06-008</t>
-  </si>
-  <si>
-    <t>06-009</t>
-  </si>
-  <si>
-    <t>06-010</t>
-  </si>
-  <si>
     <t>Tính tiền với sản phẩm đã hết hàng</t>
   </si>
   <si>
@@ -1720,9 +1708,6 @@
   </si>
   <si>
     <t>Thanh toán thất bại</t>
-  </si>
-  <si>
-    <t>Hình ảnh up lên của khách hàng bị lỗi</t>
   </si>
   <si>
     <t>1.Xem thông tin sản phẩm
@@ -1853,7 +1838,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1904,15 +1889,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2162,7 +2138,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="A1:J134" totalsRowShown="0" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="A1:J129" totalsRowShown="0" dataDxfId="10">
   <tableColumns count="10">
     <tableColumn id="1" name="ID" dataDxfId="9"/>
     <tableColumn id="2" name="Test case name" dataDxfId="8"/>
@@ -2442,10 +2418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J134"/>
+  <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
+    <sheetView topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2653,44 +2629,56 @@
       <c r="I8" s="12"/>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:10" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="9" spans="1:10" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
         <v>21</v>
       </c>
+      <c r="B10" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="24"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" spans="1:10" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="B11" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="26" t="s">
-        <v>234</v>
+        <v>151</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="23" t="s">
+        <v>235</v>
       </c>
       <c r="E11" s="26" t="s">
         <v>348</v>
@@ -2698,2852 +2686,2772 @@
       <c r="F11" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="G11" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="27"/>
+      <c r="G11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="24"/>
       <c r="I11" s="12"/>
-      <c r="J11" s="24"/>
-    </row>
-    <row r="12" spans="1:10" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="28"/>
+      <c r="J11" s="27"/>
+    </row>
+    <row r="12" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="25"/>
       <c r="D12" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="E12" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="24"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="27"/>
+    </row>
+    <row r="13" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26" t="s">
+        <v>449</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F13" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="G12" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="30"/>
-    </row>
-    <row r="13" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29" t="s">
+      <c r="G13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="24"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="27"/>
+    </row>
+    <row r="14" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="46" t="s">
+        <v>450</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="46"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="45"/>
+    </row>
+    <row r="15" spans="1:10" s="5" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>440</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="48" t="s">
+        <v>451</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>456</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>456</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="46"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="45"/>
+    </row>
+    <row r="16" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>441</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="48" t="s">
         <v>452</v>
       </c>
-      <c r="E13" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="30"/>
-    </row>
-    <row r="14" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29" t="s">
+      <c r="E16" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="46"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="45"/>
+    </row>
+    <row r="17" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>445</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="48" t="s">
         <v>453</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E17" s="46" t="s">
+        <v>456</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>456</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="45"/>
+    </row>
+    <row r="18" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>446</v>
+      </c>
+      <c r="C18" s="44"/>
+      <c r="D18" s="48" t="s">
+        <v>454</v>
+      </c>
+      <c r="E18" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F18" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="G14" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="27"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="30"/>
-    </row>
-    <row r="15" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>442</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>443</v>
-      </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="49" t="s">
-        <v>454</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="F15" s="49" t="s">
-        <v>348</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="49"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="48"/>
-    </row>
-    <row r="16" spans="1:10" s="5" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>440</v>
-      </c>
-      <c r="B16" s="47" t="s">
+      <c r="G18" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="46"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="45"/>
+    </row>
+    <row r="19" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="51" t="s">
+      <c r="B19" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="48" t="s">
         <v>455</v>
       </c>
-      <c r="E16" s="52" t="s">
-        <v>460</v>
-      </c>
-      <c r="F16" s="52" t="s">
-        <v>460</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="49"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="48"/>
-    </row>
-    <row r="17" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>441</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>445</v>
-      </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="51" t="s">
+      <c r="E19" s="46" t="s">
         <v>456</v>
       </c>
-      <c r="E17" s="49" t="s">
-        <v>348</v>
-      </c>
-      <c r="F17" s="49" t="s">
-        <v>348</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="49"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="48"/>
-    </row>
-    <row r="18" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
-        <v>447</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>449</v>
-      </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="51" t="s">
-        <v>457</v>
-      </c>
-      <c r="E18" s="49" t="s">
-        <v>460</v>
-      </c>
-      <c r="F18" s="49" t="s">
-        <v>460</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="49"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="48"/>
-    </row>
-    <row r="19" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>446</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>450</v>
-      </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="51" t="s">
-        <v>458</v>
-      </c>
-      <c r="E19" s="49" t="s">
-        <v>348</v>
-      </c>
-      <c r="F19" s="49" t="s">
-        <v>348</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="49"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="48"/>
-    </row>
-    <row r="20" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
-        <v>448</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>451</v>
-      </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="51" t="s">
-        <v>459</v>
-      </c>
-      <c r="E20" s="49" t="s">
-        <v>460</v>
-      </c>
-      <c r="F20" s="49" t="s">
-        <v>460</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="49"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="48"/>
-    </row>
-    <row r="21" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="F19" s="46" t="s">
+        <v>456</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="46"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="45"/>
+    </row>
+    <row r="20" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B21" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29" t="s">
+      <c r="C21" s="25"/>
+      <c r="D21" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E21" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F21" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="G22" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="27"/>
+      <c r="G21" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="24"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="27"/>
+    </row>
+    <row r="22" spans="1:10" s="5" customFormat="1" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="24"/>
       <c r="I22" s="12"/>
-      <c r="J22" s="30"/>
-    </row>
-    <row r="23" spans="1:10" s="5" customFormat="1" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="27"/>
+      <c r="J22" s="27"/>
+    </row>
+    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="24"/>
       <c r="I23" s="12"/>
-      <c r="J23" s="30"/>
-    </row>
-    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="27"/>
+      <c r="J23" s="27"/>
+    </row>
+    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="24"/>
       <c r="I24" s="12"/>
-      <c r="J24" s="30"/>
-    </row>
-    <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29" t="s">
-        <v>239</v>
+      <c r="J24" s="27"/>
+    </row>
+    <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="23" t="s">
+        <v>240</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="27"/>
+        <v>343</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="24"/>
       <c r="I25" s="12"/>
-      <c r="J25" s="30"/>
-    </row>
-    <row r="26" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C26" s="28"/>
+      <c r="J25" s="27"/>
+    </row>
+    <row r="26" spans="1:10" s="32" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="25"/>
       <c r="D26" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="27"/>
+        <v>241</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="24"/>
       <c r="I26" s="12"/>
-      <c r="J26" s="30"/>
-    </row>
-    <row r="27" spans="1:10" s="35" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="27"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="30"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="J26" s="27"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="24"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="E29" s="29" t="s">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="E29" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="G29" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="27"/>
+      <c r="G29" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="24"/>
       <c r="I29" s="12"/>
-      <c r="J29" s="24"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="E30" s="29" t="s">
+      <c r="A30" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="31"/>
+    </row>
+    <row r="31" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="E31" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="F30" s="29" t="s">
+      <c r="F31" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="G30" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="27"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="24"/>
-    </row>
-    <row r="31" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="11"/>
+      <c r="G31" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="24"/>
       <c r="I31" s="12"/>
-      <c r="J31" s="34"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C32" s="24"/>
+        <v>38</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="21"/>
       <c r="D32" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="G32" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="27"/>
+        <v>39</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="24"/>
       <c r="I32" s="12"/>
-      <c r="J32" s="24"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="E33" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="F33" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="27"/>
+      <c r="G33" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="24"/>
       <c r="I33" s="12"/>
-      <c r="J33" s="24"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="26" t="s">
-        <v>246</v>
+        <v>41</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="23" t="s">
+        <v>247</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>34</v>
+        <v>341</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="27"/>
+        <v>341</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="24"/>
       <c r="I34" s="12"/>
-      <c r="J34" s="24"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="E35" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="E35" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="F35" s="29" t="s">
+      <c r="F35" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="G35" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="27"/>
+      <c r="G35" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="24"/>
       <c r="I35" s="12"/>
-      <c r="J35" s="24"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="E36" s="29" t="s">
+      <c r="A36" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="24"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="E37" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="F36" s="29" t="s">
+      <c r="F37" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="G36" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="27"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="24"/>
-    </row>
-    <row r="37" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="E37" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="27"/>
+      <c r="G37" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="24"/>
       <c r="I37" s="12"/>
-      <c r="J37" s="24"/>
-    </row>
-    <row r="38" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="36" t="s">
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" spans="1:10" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="21"/>
+      <c r="D38" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="E38" s="29" t="s">
+      <c r="E38" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="F38" s="29" t="s">
+      <c r="F38" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="G38" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="27"/>
+      <c r="G38" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="24"/>
       <c r="I38" s="12"/>
-      <c r="J38" s="24"/>
-    </row>
-    <row r="39" spans="1:10" ht="147" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="36" t="s">
+      <c r="J38" s="21"/>
+    </row>
+    <row r="39" spans="1:10" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="27"/>
+      <c r="D39" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="E39" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="F39" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="G39" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="27"/>
+      <c r="E39" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="24"/>
       <c r="I39" s="12"/>
-      <c r="J39" s="24"/>
-    </row>
-    <row r="40" spans="1:10" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="F40" s="29" t="s">
-        <v>340</v>
-      </c>
-      <c r="G40" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="27"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="30"/>
-    </row>
-    <row r="41" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="37" t="s">
+      <c r="J39" s="27"/>
+    </row>
+    <row r="40" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="38"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="35"/>
+    </row>
+    <row r="41" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" s="27"/>
+      <c r="D41" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="24"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="27"/>
     </row>
     <row r="42" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" s="27"/>
+      <c r="D42" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="E42" s="29" t="s">
-        <v>338</v>
-      </c>
-      <c r="F42" s="29" t="s">
-        <v>338</v>
-      </c>
-      <c r="G42" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" s="27"/>
+      <c r="E42" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="24"/>
       <c r="I42" s="12"/>
-      <c r="J42" s="30"/>
+      <c r="J42" s="27"/>
     </row>
     <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="27"/>
+      <c r="D43" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="E43" s="29" t="s">
+      <c r="E43" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="F43" s="29" t="s">
+      <c r="F43" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="G43" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" s="27"/>
+      <c r="G43" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="24"/>
       <c r="I43" s="12"/>
-      <c r="J43" s="30"/>
+      <c r="J43" s="27"/>
     </row>
     <row r="44" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C44" s="30"/>
-      <c r="D44" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="27"/>
+      <c r="D44" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="E44" s="29" t="s">
+      <c r="E44" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="F44" s="29" t="s">
+      <c r="F44" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="G44" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="27"/>
+      <c r="G44" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="24"/>
       <c r="I44" s="12"/>
-      <c r="J44" s="30"/>
+      <c r="J44" s="27"/>
     </row>
     <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="C45" s="30"/>
-      <c r="D45" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45" s="27"/>
+      <c r="D45" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="E45" s="29" t="s">
+      <c r="E45" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="F45" s="29" t="s">
+      <c r="F45" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="G45" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" s="27"/>
+      <c r="G45" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="24"/>
       <c r="I45" s="12"/>
-      <c r="J45" s="30"/>
-    </row>
-    <row r="46" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="J45" s="27"/>
+    </row>
+    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="C46" s="30"/>
-      <c r="D46" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="E46" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46" s="27"/>
+      <c r="D46" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="24"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="27"/>
+    </row>
+    <row r="47" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" s="27"/>
+      <c r="D47" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="24"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="27"/>
+    </row>
+    <row r="48" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" s="27"/>
+      <c r="D48" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="24"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="27"/>
+    </row>
+    <row r="49" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C49" s="27"/>
+      <c r="D49" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="24"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="27"/>
+    </row>
+    <row r="50" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" s="27"/>
+      <c r="D50" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="E50" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="F46" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="G46" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="27"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="30"/>
-    </row>
-    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="29" t="s">
+      <c r="F50" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="G50" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="24"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="27"/>
+    </row>
+    <row r="51" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="38"/>
+    </row>
+    <row r="52" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" s="27"/>
+      <c r="D52" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="24"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="27"/>
+    </row>
+    <row r="53" spans="1:10" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" s="27"/>
+      <c r="D53" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="24"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="27"/>
+    </row>
+    <row r="54" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" s="27"/>
+      <c r="D54" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="G54" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="24"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="27"/>
+    </row>
+    <row r="55" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C55" s="27"/>
+      <c r="D55" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="G55" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="24"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="27"/>
+    </row>
+    <row r="56" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C56" s="27"/>
+      <c r="D56" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="G56" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="24"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="27"/>
+    </row>
+    <row r="57" spans="1:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C57" s="27"/>
+      <c r="D57" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="24"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="27"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="39"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="38"/>
+    </row>
+    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" s="27"/>
+      <c r="D59" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="G59" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="24"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="27"/>
+    </row>
+    <row r="60" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C60" s="27"/>
+      <c r="D60" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="G60" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" s="24"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="27"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C61" s="27"/>
+      <c r="D61" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F61" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="G61" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="24"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="27"/>
+    </row>
+    <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C62" s="27"/>
+      <c r="D62" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="G62" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="24"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="27"/>
+    </row>
+    <row r="63" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" s="27"/>
+      <c r="D63" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F63" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="G63" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="24"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="27"/>
+    </row>
+    <row r="64" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="C47" s="30"/>
-      <c r="D47" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="E47" s="29" t="s">
+      <c r="C64" s="27"/>
+      <c r="D64" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="E64" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="F47" s="29" t="s">
+      <c r="F64" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="G47" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="27"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="30"/>
-    </row>
-    <row r="48" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="C48" s="30"/>
-      <c r="D48" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="E48" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="F48" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="G48" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" s="27"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="30"/>
-    </row>
-    <row r="49" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="E49" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="F49" s="29" t="s">
-        <v>333</v>
-      </c>
-      <c r="G49" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" s="27"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="30"/>
-    </row>
-    <row r="50" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="E50" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="F50" s="29" t="s">
-        <v>332</v>
-      </c>
-      <c r="G50" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="27"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="30"/>
-    </row>
-    <row r="51" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="C51" s="30"/>
-      <c r="D51" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="E51" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="F51" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="G51" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" s="27"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="30"/>
-    </row>
-    <row r="52" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="41"/>
-    </row>
-    <row r="53" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="C53" s="30"/>
-      <c r="D53" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="E53" s="29" t="s">
-        <v>328</v>
-      </c>
-      <c r="F53" s="29" t="s">
-        <v>329</v>
-      </c>
-      <c r="G53" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" s="27"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="30"/>
-    </row>
-    <row r="54" spans="1:10" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="C54" s="30"/>
-      <c r="D54" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="E54" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="F54" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="G54" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" s="27"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="30"/>
-    </row>
-    <row r="55" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="C55" s="30"/>
-      <c r="D55" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="E55" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="F55" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="G55" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" s="27"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="30"/>
-    </row>
-    <row r="56" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="C56" s="30"/>
-      <c r="D56" s="29" t="s">
-        <v>260</v>
-      </c>
-      <c r="E56" s="29" t="s">
-        <v>325</v>
-      </c>
-      <c r="F56" s="29" t="s">
-        <v>325</v>
-      </c>
-      <c r="G56" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H56" s="27"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="30"/>
-    </row>
-    <row r="57" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="C57" s="30"/>
-      <c r="D57" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="E57" s="29" t="s">
-        <v>323</v>
-      </c>
-      <c r="F57" s="29" t="s">
-        <v>324</v>
-      </c>
-      <c r="G57" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" s="27"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="30"/>
-    </row>
-    <row r="58" spans="1:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B58" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="E58" s="29" t="s">
-        <v>321</v>
-      </c>
-      <c r="F58" s="29" t="s">
-        <v>322</v>
-      </c>
-      <c r="G58" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" s="27"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="30"/>
-    </row>
-    <row r="59" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B59" s="47"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="48"/>
-    </row>
-    <row r="60" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B60" s="47"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="48"/>
-    </row>
-    <row r="61" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B61" s="47"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="50"/>
-      <c r="J61" s="48"/>
-    </row>
-    <row r="62" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B62" s="47"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="50"/>
-      <c r="J62" s="48"/>
-    </row>
-    <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63" s="42"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="44"/>
-      <c r="J63" s="41"/>
-    </row>
-    <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="C64" s="30"/>
-      <c r="D64" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="E64" s="29" t="s">
-        <v>320</v>
-      </c>
-      <c r="F64" s="29" t="s">
-        <v>320</v>
-      </c>
-      <c r="G64" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H64" s="27"/>
+      <c r="G64" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="24"/>
       <c r="I64" s="12"/>
-      <c r="J64" s="30"/>
-    </row>
-    <row r="65" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J64" s="27"/>
+    </row>
+    <row r="65" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="C65" s="30"/>
-      <c r="D65" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="E65" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="C65" s="27"/>
+      <c r="D65" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="E65" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="F65" s="42" t="s">
+        <v>317</v>
+      </c>
+      <c r="G65" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" s="24"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="27"/>
+    </row>
+    <row r="66" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="C66" s="27"/>
+      <c r="D66" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="F66" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="G66" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="24"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="27"/>
+    </row>
+    <row r="67" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="C67" s="27"/>
+      <c r="D67" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="F67" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="F65" s="29" t="s">
+      <c r="G67" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" s="24"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="27"/>
+    </row>
+    <row r="68" spans="1:10" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C68" s="27"/>
+      <c r="D68" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="E68" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="G65" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H65" s="27"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="30"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="C66" s="30"/>
-      <c r="D66" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="E66" s="29" t="s">
+      <c r="F68" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="F66" s="29" t="s">
+      <c r="G68" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" s="24"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="27"/>
+    </row>
+    <row r="69" spans="1:10" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="39"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="38"/>
+    </row>
+    <row r="70" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C70" s="27"/>
+      <c r="D70" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="G70" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" s="24"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="27"/>
+    </row>
+    <row r="71" spans="1:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C71" s="27"/>
+      <c r="D71" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="E71" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="F71" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="G71" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" s="24"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="27"/>
+    </row>
+    <row r="72" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C72" s="27"/>
+      <c r="D72" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="F72" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="G72" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" s="24"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="27"/>
+    </row>
+    <row r="73" spans="1:10" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C73" s="27"/>
+      <c r="D73" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E73" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="F73" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G73" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" s="24"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="27"/>
+    </row>
+    <row r="74" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C74" s="27"/>
+      <c r="D74" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E74" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="G66" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H66" s="27"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="30"/>
-    </row>
-    <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="C67" s="30"/>
-      <c r="D67" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="E67" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="F67" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="G67" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H67" s="27"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="30"/>
-    </row>
-    <row r="68" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="C68" s="30"/>
-      <c r="D68" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="E68" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="F68" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="G68" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" s="27"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="30"/>
-    </row>
-    <row r="69" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="C69" s="30"/>
-      <c r="D69" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="E69" s="29" t="s">
-        <v>318</v>
-      </c>
-      <c r="F69" s="29" t="s">
-        <v>314</v>
-      </c>
-      <c r="G69" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H69" s="27"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="30"/>
-    </row>
-    <row r="70" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="C70" s="30"/>
-      <c r="D70" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="E70" s="45" t="s">
-        <v>316</v>
-      </c>
-      <c r="F70" s="45" t="s">
-        <v>317</v>
-      </c>
-      <c r="G70" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H70" s="27"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="30"/>
-    </row>
-    <row r="71" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="C71" s="30"/>
-      <c r="D71" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="E71" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="F71" s="29" t="s">
-        <v>314</v>
-      </c>
-      <c r="G71" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H71" s="27"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="30"/>
-    </row>
-    <row r="72" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="C72" s="30"/>
-      <c r="D72" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="E72" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="F72" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="G72" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H72" s="27"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="30"/>
-    </row>
-    <row r="73" spans="1:10" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="C73" s="30"/>
-      <c r="D73" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="E73" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="F73" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="G73" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H73" s="27"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="30"/>
-    </row>
-    <row r="74" spans="1:10" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74" s="42"/>
-      <c r="C74" s="41"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="42"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="44"/>
-      <c r="J74" s="41"/>
-    </row>
-    <row r="75" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F74" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="G74" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" s="24"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="27"/>
+    </row>
+    <row r="75" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="C75" s="30"/>
-      <c r="D75" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="E75" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="F75" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="G75" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H75" s="27"/>
+        <v>82</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="C75" s="27"/>
+      <c r="D75" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E75" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="F75" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="G75" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="24"/>
       <c r="I75" s="12"/>
-      <c r="J75" s="30"/>
-    </row>
-    <row r="76" spans="1:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J75" s="27"/>
+    </row>
+    <row r="76" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="C76" s="30"/>
-      <c r="D76" s="36" t="s">
-        <v>272</v>
+        <v>203</v>
+      </c>
+      <c r="C76" s="27"/>
+      <c r="D76" s="33" t="s">
+        <v>274</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F76" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="G76" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H76" s="27"/>
+        <v>306</v>
+      </c>
+      <c r="G76" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" s="24"/>
       <c r="I76" s="12"/>
-      <c r="J76" s="30"/>
-    </row>
-    <row r="77" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J76" s="27"/>
+    </row>
+    <row r="77" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="C77" s="30"/>
-      <c r="D77" s="29" t="s">
-        <v>273</v>
+        <v>84</v>
+      </c>
+      <c r="B77" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C77" s="27"/>
+      <c r="D77" s="26" t="s">
+        <v>275</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="F77" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="G77" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H77" s="27"/>
+        <v>305</v>
+      </c>
+      <c r="F77" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="G77" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="24"/>
       <c r="I77" s="12"/>
-      <c r="J77" s="30"/>
-    </row>
-    <row r="78" spans="1:10" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J77" s="27"/>
+    </row>
+    <row r="78" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="C78" s="30"/>
-      <c r="D78" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="E78" s="29" t="s">
-        <v>308</v>
-      </c>
-      <c r="F78" s="29" t="s">
-        <v>308</v>
-      </c>
-      <c r="G78" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H78" s="27"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="30"/>
-    </row>
-    <row r="79" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="B78" s="44" t="s">
+        <v>430</v>
+      </c>
+      <c r="C78" s="45"/>
+      <c r="D78" s="46" t="s">
+        <v>433</v>
+      </c>
+      <c r="E78" s="48" t="s">
+        <v>432</v>
+      </c>
+      <c r="F78" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="G78" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="46"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="45"/>
+    </row>
+    <row r="79" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="C79" s="30"/>
-      <c r="D79" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="E79" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="F79" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="G79" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H79" s="27"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="30"/>
-    </row>
-    <row r="80" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="C80" s="30"/>
-      <c r="D80" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="E80" s="29" t="s">
-        <v>289</v>
-      </c>
-      <c r="F80" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="G80" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" s="27"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="30"/>
-    </row>
-    <row r="81" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+      <c r="B79" s="44" t="s">
+        <v>431</v>
+      </c>
+      <c r="C79" s="45"/>
+      <c r="D79" s="46" t="s">
+        <v>434</v>
+      </c>
+      <c r="E79" s="48" t="s">
+        <v>435</v>
+      </c>
+      <c r="F79" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="G79" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" s="46"/>
+      <c r="I79" s="47"/>
+      <c r="J79" s="45"/>
+    </row>
+    <row r="80" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" s="39"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="39"/>
+      <c r="I80" s="41"/>
+      <c r="J80" s="38"/>
+    </row>
+    <row r="81" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="C81" s="30"/>
-      <c r="D81" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="E81" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="F81" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="G81" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H81" s="27"/>
+        <v>86</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C81" s="27"/>
+      <c r="D81" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="E81" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="G81" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="24"/>
       <c r="I81" s="12"/>
-      <c r="J81" s="30"/>
-    </row>
-    <row r="82" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J81" s="27"/>
+    </row>
+    <row r="82" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="C82" s="30"/>
-      <c r="D82" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="E82" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="F82" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="G82" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H82" s="27"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="30"/>
-    </row>
-    <row r="83" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="B82" s="44" t="s">
+        <v>356</v>
+      </c>
+      <c r="C82" s="45"/>
+      <c r="D82" s="48" t="s">
+        <v>358</v>
+      </c>
+      <c r="E82" s="48" t="s">
+        <v>394</v>
+      </c>
+      <c r="F82" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="G82" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" s="46"/>
+      <c r="I82" s="47"/>
+      <c r="J82" s="45"/>
+    </row>
+    <row r="83" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B83" s="47" t="s">
-        <v>434</v>
-      </c>
-      <c r="C83" s="48"/>
-      <c r="D83" s="49" t="s">
-        <v>437</v>
-      </c>
-      <c r="E83" s="51" t="s">
-        <v>436</v>
-      </c>
-      <c r="F83" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="G83" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H83" s="49"/>
-      <c r="I83" s="50"/>
-      <c r="J83" s="48"/>
-    </row>
-    <row r="84" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="B83" s="44" t="s">
+        <v>354</v>
+      </c>
+      <c r="C83" s="45"/>
+      <c r="D83" s="48" t="s">
+        <v>396</v>
+      </c>
+      <c r="E83" s="48" t="s">
+        <v>395</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="G83" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" s="46"/>
+      <c r="I83" s="47"/>
+      <c r="J83" s="45"/>
+    </row>
+    <row r="84" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B84" s="47" t="s">
-        <v>435</v>
-      </c>
-      <c r="C84" s="48"/>
-      <c r="D84" s="49" t="s">
-        <v>438</v>
-      </c>
-      <c r="E84" s="51" t="s">
-        <v>439</v>
-      </c>
-      <c r="F84" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="G84" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H84" s="49"/>
-      <c r="I84" s="50"/>
-      <c r="J84" s="48"/>
-    </row>
-    <row r="85" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85" s="42"/>
-      <c r="C85" s="41"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="42"/>
-      <c r="F85" s="42"/>
-      <c r="G85" s="42"/>
-      <c r="H85" s="42"/>
-      <c r="I85" s="44"/>
-      <c r="J85" s="41"/>
-    </row>
-    <row r="86" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="B84" s="44" t="s">
+        <v>355</v>
+      </c>
+      <c r="C84" s="45"/>
+      <c r="D84" s="48" t="s">
+        <v>359</v>
+      </c>
+      <c r="E84" s="48" t="s">
+        <v>361</v>
+      </c>
+      <c r="F84" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="G84" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" s="46"/>
+      <c r="I84" s="47"/>
+      <c r="J84" s="45"/>
+    </row>
+    <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B85" s="44" t="s">
+        <v>357</v>
+      </c>
+      <c r="C85" s="45"/>
+      <c r="D85" s="48" t="s">
+        <v>397</v>
+      </c>
+      <c r="E85" s="48" t="s">
+        <v>398</v>
+      </c>
+      <c r="F85" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="G85" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" s="46"/>
+      <c r="I85" s="47"/>
+      <c r="J85" s="45"/>
+    </row>
+    <row r="86" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="C86" s="30"/>
-      <c r="D86" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="E86" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="F86" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="G86" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H86" s="27"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="30"/>
-    </row>
-    <row r="87" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+      <c r="B86" s="44" t="s">
+        <v>392</v>
+      </c>
+      <c r="C86" s="45"/>
+      <c r="D86" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="E86" s="48" t="s">
+        <v>401</v>
+      </c>
+      <c r="F86" s="48" t="s">
+        <v>401</v>
+      </c>
+      <c r="G86" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" s="46"/>
+      <c r="I86" s="47"/>
+      <c r="J86" s="45"/>
+    </row>
+    <row r="87" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B87" s="47" t="s">
-        <v>356</v>
-      </c>
-      <c r="C87" s="48"/>
-      <c r="D87" s="51" t="s">
-        <v>358</v>
-      </c>
-      <c r="E87" s="51" t="s">
-        <v>398</v>
-      </c>
-      <c r="F87" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="G87" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H87" s="49"/>
-      <c r="I87" s="50"/>
-      <c r="J87" s="48"/>
-    </row>
-    <row r="88" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+      <c r="B87" s="44" t="s">
+        <v>391</v>
+      </c>
+      <c r="C87" s="45"/>
+      <c r="D87" s="48" t="s">
+        <v>402</v>
+      </c>
+      <c r="E87" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="F87" s="48" t="s">
+        <v>406</v>
+      </c>
+      <c r="G87" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="46"/>
+      <c r="I87" s="47"/>
+      <c r="J87" s="45"/>
+    </row>
+    <row r="88" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B88" s="47" t="s">
-        <v>354</v>
-      </c>
-      <c r="C88" s="48"/>
-      <c r="D88" s="51" t="s">
-        <v>400</v>
-      </c>
-      <c r="E88" s="51" t="s">
+        <v>370</v>
+      </c>
+      <c r="B88" s="44" t="s">
         <v>399</v>
       </c>
-      <c r="F88" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="G88" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H88" s="49"/>
-      <c r="I88" s="50"/>
-      <c r="J88" s="48"/>
-    </row>
-    <row r="89" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C88" s="45"/>
+      <c r="D88" s="48" t="s">
+        <v>403</v>
+      </c>
+      <c r="E88" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="F88" s="48" t="s">
+        <v>407</v>
+      </c>
+      <c r="G88" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" s="46"/>
+      <c r="I88" s="47"/>
+      <c r="J88" s="45"/>
+    </row>
+    <row r="89" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B89" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="C89" s="48"/>
-      <c r="D89" s="51" t="s">
-        <v>359</v>
-      </c>
-      <c r="E89" s="51" t="s">
-        <v>361</v>
-      </c>
-      <c r="F89" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="G89" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H89" s="49"/>
-      <c r="I89" s="50"/>
-      <c r="J89" s="48"/>
-    </row>
-    <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+      <c r="B89" s="44" t="s">
+        <v>408</v>
+      </c>
+      <c r="C89" s="45"/>
+      <c r="D89" s="48" t="s">
+        <v>409</v>
+      </c>
+      <c r="E89" s="48" t="s">
+        <v>410</v>
+      </c>
+      <c r="F89" s="48" t="s">
+        <v>410</v>
+      </c>
+      <c r="G89" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" s="46"/>
+      <c r="I89" s="47"/>
+      <c r="J89" s="45"/>
+    </row>
+    <row r="90" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B90" s="47" t="s">
-        <v>357</v>
-      </c>
-      <c r="C90" s="48"/>
-      <c r="D90" s="51" t="s">
-        <v>401</v>
-      </c>
-      <c r="E90" s="51" t="s">
-        <v>402</v>
-      </c>
-      <c r="F90" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="G90" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H90" s="49"/>
-      <c r="I90" s="50"/>
-      <c r="J90" s="48"/>
-    </row>
-    <row r="91" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B91" s="47" t="s">
-        <v>396</v>
-      </c>
-      <c r="C91" s="48"/>
-      <c r="D91" s="51" t="s">
-        <v>404</v>
-      </c>
-      <c r="E91" s="51" t="s">
-        <v>405</v>
-      </c>
-      <c r="F91" s="51" t="s">
-        <v>405</v>
-      </c>
-      <c r="G91" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H91" s="49"/>
-      <c r="I91" s="50"/>
-      <c r="J91" s="48"/>
-    </row>
-    <row r="92" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+      <c r="B90" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C90" s="45"/>
+      <c r="D90" s="48" t="s">
+        <v>412</v>
+      </c>
+      <c r="E90" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="F90" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="G90" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" s="46"/>
+      <c r="I90" s="47"/>
+      <c r="J90" s="45"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B91" s="39"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="41"/>
+      <c r="J91" s="38"/>
+    </row>
+    <row r="92" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B92" s="47" t="s">
-        <v>395</v>
-      </c>
-      <c r="C92" s="48"/>
-      <c r="D92" s="51" t="s">
-        <v>406</v>
-      </c>
-      <c r="E92" s="51" t="s">
-        <v>408</v>
-      </c>
-      <c r="F92" s="51" t="s">
-        <v>410</v>
-      </c>
-      <c r="G92" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H92" s="49"/>
-      <c r="I92" s="50"/>
-      <c r="J92" s="48"/>
-    </row>
-    <row r="93" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="B92" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C92" s="27"/>
+      <c r="D92" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="E92" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="F92" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="G92" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="24"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="27"/>
+    </row>
+    <row r="93" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B93" s="47" t="s">
-        <v>403</v>
-      </c>
-      <c r="C93" s="48"/>
-      <c r="D93" s="51" t="s">
-        <v>407</v>
-      </c>
-      <c r="E93" s="51" t="s">
-        <v>409</v>
-      </c>
-      <c r="F93" s="51" t="s">
-        <v>411</v>
-      </c>
-      <c r="G93" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H93" s="49"/>
-      <c r="I93" s="50"/>
-      <c r="J93" s="48"/>
+        <v>89</v>
+      </c>
+      <c r="B93" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C93" s="27"/>
+      <c r="D93" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="E93" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="F93" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="G93" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" s="24"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="27"/>
     </row>
     <row r="94" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B94" s="47" t="s">
-        <v>412</v>
-      </c>
-      <c r="C94" s="48"/>
-      <c r="D94" s="51" t="s">
-        <v>413</v>
-      </c>
-      <c r="E94" s="51" t="s">
-        <v>414</v>
-      </c>
-      <c r="F94" s="51" t="s">
-        <v>414</v>
-      </c>
-      <c r="G94" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H94" s="49"/>
-      <c r="I94" s="50"/>
-      <c r="J94" s="48"/>
-    </row>
-    <row r="95" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="B94" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C94" s="27"/>
+      <c r="D94" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="E94" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="F94" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="G94" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" s="24"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="27"/>
+    </row>
+    <row r="95" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B95" s="47" t="s">
-        <v>415</v>
-      </c>
-      <c r="C95" s="48"/>
-      <c r="D95" s="51" t="s">
-        <v>416</v>
-      </c>
-      <c r="E95" s="51" t="s">
-        <v>417</v>
-      </c>
-      <c r="F95" s="51" t="s">
-        <v>417</v>
-      </c>
-      <c r="G95" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H95" s="49"/>
-      <c r="I95" s="50"/>
-      <c r="J95" s="48"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="B96" s="42"/>
-      <c r="C96" s="41"/>
-      <c r="D96" s="42"/>
-      <c r="E96" s="42"/>
-      <c r="F96" s="42"/>
-      <c r="G96" s="42"/>
-      <c r="H96" s="42"/>
-      <c r="I96" s="44"/>
-      <c r="J96" s="41"/>
-    </row>
-    <row r="97" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="B95" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="C95" s="27"/>
+      <c r="D95" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="E95" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="F95" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="G95" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" s="24"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="27"/>
+    </row>
+    <row r="96" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B96" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C96" s="27"/>
+      <c r="D96" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="E96" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="F96" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="G96" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" s="24"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="27"/>
+    </row>
+    <row r="97" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B97" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="C97" s="30"/>
-      <c r="D97" s="29" t="s">
-        <v>276</v>
-      </c>
-      <c r="E97" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="F97" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="G97" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H97" s="27"/>
+        <v>93</v>
+      </c>
+      <c r="B97" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="C97" s="27"/>
+      <c r="D97" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="E97" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="F97" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="G97" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" s="24"/>
       <c r="I97" s="12"/>
-      <c r="J97" s="30"/>
-    </row>
-    <row r="98" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="J97" s="27"/>
+    </row>
+    <row r="98" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B98" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="C98" s="30"/>
-      <c r="D98" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="E98" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="F98" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="G98" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H98" s="27"/>
+        <v>94</v>
+      </c>
+      <c r="B98" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C98" s="27"/>
+      <c r="D98" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="E98" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="F98" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="G98" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" s="24"/>
       <c r="I98" s="12"/>
-      <c r="J98" s="30"/>
-    </row>
-    <row r="99" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="J98" s="27"/>
+    </row>
+    <row r="99" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B99" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="C99" s="30"/>
-      <c r="D99" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="E99" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="F99" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="G99" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H99" s="27"/>
+        <v>95</v>
+      </c>
+      <c r="B99" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C99" s="27"/>
+      <c r="D99" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="E99" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="F99" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="G99" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" s="24"/>
       <c r="I99" s="12"/>
-      <c r="J99" s="30"/>
-    </row>
-    <row r="100" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="J99" s="27"/>
+    </row>
+    <row r="100" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B100" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="C100" s="30"/>
-      <c r="D100" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="E100" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="F100" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="G100" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H100" s="27"/>
+        <v>96</v>
+      </c>
+      <c r="B100" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C100" s="27"/>
+      <c r="D100" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="E100" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="F100" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="G100" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" s="24"/>
       <c r="I100" s="12"/>
-      <c r="J100" s="30"/>
-    </row>
-    <row r="101" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="J100" s="27"/>
+    </row>
+    <row r="101" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B101" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="C101" s="30"/>
-      <c r="D101" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="E101" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="F101" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="G101" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H101" s="27"/>
+        <v>97</v>
+      </c>
+      <c r="B101" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C101" s="27"/>
+      <c r="D101" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E101" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="F101" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="G101" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" s="24"/>
       <c r="I101" s="12"/>
-      <c r="J101" s="30"/>
-    </row>
-    <row r="102" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="J101" s="27"/>
+    </row>
+    <row r="102" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B102" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="C102" s="30"/>
-      <c r="D102" s="29" t="s">
-        <v>281</v>
-      </c>
-      <c r="E102" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="F102" s="29" t="s">
-        <v>298</v>
-      </c>
-      <c r="G102" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H102" s="27"/>
+        <v>101</v>
+      </c>
+      <c r="B102" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C102" s="27"/>
+      <c r="D102" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E102" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="F102" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="G102" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H102" s="24"/>
       <c r="I102" s="12"/>
-      <c r="J102" s="30"/>
-    </row>
-    <row r="103" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="J102" s="27"/>
+    </row>
+    <row r="103" spans="1:10" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B103" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="C103" s="30"/>
-      <c r="D103" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="E103" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="F103" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="G103" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H103" s="27"/>
+        <v>103</v>
+      </c>
+      <c r="B103" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C103" s="27"/>
+      <c r="D103" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E103" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="F103" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="G103" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" s="24"/>
       <c r="I103" s="12"/>
-      <c r="J103" s="30"/>
-    </row>
-    <row r="104" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="J103" s="27"/>
+    </row>
+    <row r="104" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B104" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="C104" s="30"/>
-      <c r="D104" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="E104" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="F104" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="G104" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H104" s="27"/>
+        <v>105</v>
+      </c>
+      <c r="B104" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="C104" s="27"/>
+      <c r="D104" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E104" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F104" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="G104" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" s="24"/>
       <c r="I104" s="12"/>
-      <c r="J104" s="30"/>
-    </row>
-    <row r="105" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="J104" s="27"/>
+    </row>
+    <row r="105" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B105" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="C105" s="30"/>
-      <c r="D105" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C105" s="27"/>
+      <c r="D105" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E105" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="F105" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="G105" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" s="24"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="27"/>
+    </row>
+    <row r="106" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="C106" s="27"/>
+      <c r="D106" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E106" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="F106" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="G106" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" s="24"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="27"/>
+    </row>
+    <row r="107" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C107" s="27"/>
+      <c r="D107" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="E105" s="29" t="s">
-        <v>294</v>
-      </c>
-      <c r="F105" s="29" t="s">
-        <v>294</v>
-      </c>
-      <c r="G105" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H105" s="27"/>
-      <c r="I105" s="12"/>
-      <c r="J105" s="30"/>
-    </row>
-    <row r="106" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B106" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="C106" s="30"/>
-      <c r="D106" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="E106" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="F106" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="G106" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H106" s="27"/>
-      <c r="I106" s="12"/>
-      <c r="J106" s="30"/>
-    </row>
-    <row r="107" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B107" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="C107" s="30"/>
-      <c r="D107" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="E107" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="F107" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="G107" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H107" s="27"/>
+      <c r="E107" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="F107" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="G107" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H107" s="24"/>
       <c r="I107" s="12"/>
-      <c r="J107" s="30"/>
-    </row>
-    <row r="108" spans="1:10" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J107" s="27"/>
+    </row>
+    <row r="108" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B108" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="C108" s="30"/>
-      <c r="D108" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="E108" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="F108" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="G108" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H108" s="27"/>
+        <v>112</v>
+      </c>
+      <c r="B108" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="C108" s="27"/>
+      <c r="D108" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E108" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="F108" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="G108" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H108" s="24"/>
       <c r="I108" s="12"/>
-      <c r="J108" s="30"/>
-    </row>
-    <row r="109" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J108" s="27"/>
+    </row>
+    <row r="109" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B109" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="C109" s="30"/>
-      <c r="D109" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="E109" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="F109" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="G109" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H109" s="27"/>
+        <v>114</v>
+      </c>
+      <c r="B109" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="C109" s="27"/>
+      <c r="D109" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E109" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="F109" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="G109" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" s="24"/>
       <c r="I109" s="12"/>
-      <c r="J109" s="30"/>
-    </row>
-    <row r="110" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J109" s="27"/>
+    </row>
+    <row r="110" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B110" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="C110" s="30"/>
-      <c r="D110" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="E110" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="F110" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="G110" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H110" s="27"/>
+        <v>116</v>
+      </c>
+      <c r="B110" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C110" s="27"/>
+      <c r="D110" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="E110" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="F110" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="G110" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" s="24"/>
       <c r="I110" s="12"/>
-      <c r="J110" s="30"/>
-    </row>
-    <row r="111" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J110" s="27"/>
+    </row>
+    <row r="111" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B111" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="C111" s="30"/>
-      <c r="D111" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="E111" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="F111" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="G111" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H111" s="27"/>
+        <v>118</v>
+      </c>
+      <c r="B111" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C111" s="27"/>
+      <c r="D111" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E111" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="F111" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="G111" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H111" s="24"/>
       <c r="I111" s="12"/>
-      <c r="J111" s="30"/>
-    </row>
-    <row r="112" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J111" s="27"/>
+    </row>
+    <row r="112" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B112" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="C112" s="30"/>
-      <c r="D112" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="E112" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="F112" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="G112" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H112" s="27"/>
+        <v>120</v>
+      </c>
+      <c r="B112" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="C112" s="27"/>
+      <c r="D112" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="E112" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="F112" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="G112" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H112" s="24"/>
       <c r="I112" s="12"/>
-      <c r="J112" s="30"/>
-    </row>
-    <row r="113" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J112" s="27"/>
+    </row>
+    <row r="113" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B113" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="C113" s="30"/>
-      <c r="D113" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="E113" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B113" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C113" s="27"/>
+      <c r="D113" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E113" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="F113" s="29" t="s">
+      <c r="F113" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="G113" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H113" s="27"/>
+      <c r="G113" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H113" s="24"/>
       <c r="I113" s="12"/>
-      <c r="J113" s="30"/>
-    </row>
-    <row r="114" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J113" s="27"/>
+    </row>
+    <row r="114" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B114" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="C114" s="30"/>
-      <c r="D114" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="E114" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="C114" s="27"/>
+      <c r="D114" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E114" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="F114" s="29" t="s">
+      <c r="F114" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="G114" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H114" s="27"/>
+      <c r="G114" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H114" s="24"/>
       <c r="I114" s="12"/>
-      <c r="J114" s="30"/>
-    </row>
-    <row r="115" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="J114" s="27"/>
+    </row>
+    <row r="115" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B115" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="C115" s="30"/>
-      <c r="D115" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="E115" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B115" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C115" s="27"/>
+      <c r="D115" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E115" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="F115" s="29" t="s">
+      <c r="F115" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="G115" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H115" s="27"/>
+      <c r="G115" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H115" s="24"/>
       <c r="I115" s="12"/>
-      <c r="J115" s="30"/>
-    </row>
-    <row r="116" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B116" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="C116" s="30"/>
-      <c r="D116" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="E116" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="F116" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="G116" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H116" s="27"/>
-      <c r="I116" s="12"/>
-      <c r="J116" s="30"/>
-    </row>
-    <row r="117" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B117" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="C117" s="30"/>
-      <c r="D117" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="E117" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="F117" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="G117" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H117" s="27"/>
-      <c r="I117" s="12"/>
-      <c r="J117" s="30"/>
-    </row>
-    <row r="118" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B118" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="C118" s="30"/>
-      <c r="D118" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="E118" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="F118" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="G118" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H118" s="27"/>
-      <c r="I118" s="12"/>
-      <c r="J118" s="30"/>
-    </row>
-    <row r="119" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B119" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="C119" s="30"/>
-      <c r="D119" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="E119" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="F119" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="G119" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H119" s="27"/>
-      <c r="I119" s="12"/>
-      <c r="J119" s="30"/>
-    </row>
-    <row r="120" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J115" s="27"/>
+    </row>
+    <row r="116" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="51" t="s">
+        <v>457</v>
+      </c>
+      <c r="B116" s="44" t="s">
+        <v>461</v>
+      </c>
+      <c r="C116" s="45"/>
+      <c r="D116" s="46" t="s">
+        <v>462</v>
+      </c>
+      <c r="E116" s="46" t="s">
+        <v>464</v>
+      </c>
+      <c r="F116" s="46" t="s">
+        <v>466</v>
+      </c>
+      <c r="G116" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H116" s="46"/>
+      <c r="I116" s="47"/>
+      <c r="J116" s="45"/>
+    </row>
+    <row r="117" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="51" t="s">
+        <v>458</v>
+      </c>
+      <c r="B117" s="44" t="s">
+        <v>460</v>
+      </c>
+      <c r="C117" s="45"/>
+      <c r="D117" s="46" t="s">
+        <v>463</v>
+      </c>
+      <c r="E117" s="46" t="s">
+        <v>465</v>
+      </c>
+      <c r="F117" s="46" t="s">
+        <v>467</v>
+      </c>
+      <c r="G117" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H117" s="46"/>
+      <c r="I117" s="47"/>
+      <c r="J117" s="45"/>
+    </row>
+    <row r="118" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="B118" s="44" t="s">
+        <v>469</v>
+      </c>
+      <c r="C118" s="45"/>
+      <c r="D118" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="E118" s="46" t="s">
+        <v>465</v>
+      </c>
+      <c r="F118" s="46" t="s">
+        <v>467</v>
+      </c>
+      <c r="G118" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H118" s="46"/>
+      <c r="I118" s="47"/>
+      <c r="J118" s="45"/>
+    </row>
+    <row r="119" spans="1:10" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B119" s="39"/>
+      <c r="C119" s="38"/>
+      <c r="D119" s="39"/>
+      <c r="E119" s="39"/>
+      <c r="F119" s="39"/>
+      <c r="G119" s="39"/>
+      <c r="H119" s="39"/>
+      <c r="I119" s="41"/>
+      <c r="J119" s="38"/>
+    </row>
+    <row r="120" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B120" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="C120" s="30"/>
-      <c r="D120" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="E120" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="F120" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="G120" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H120" s="27"/>
+        <v>128</v>
+      </c>
+      <c r="B120" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C120" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D120" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="E120" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="F120" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="G120" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H120" s="24"/>
       <c r="I120" s="12"/>
-      <c r="J120" s="30"/>
-    </row>
-    <row r="121" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="54" t="s">
-        <v>461</v>
-      </c>
-      <c r="B121" s="47" t="s">
-        <v>465</v>
-      </c>
-      <c r="C121" s="48"/>
-      <c r="D121" s="49" t="s">
-        <v>466</v>
-      </c>
-      <c r="E121" s="49" t="s">
-        <v>468</v>
-      </c>
-      <c r="F121" s="49" t="s">
-        <v>470</v>
-      </c>
-      <c r="G121" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H121" s="49"/>
-      <c r="I121" s="50"/>
-      <c r="J121" s="48"/>
-    </row>
-    <row r="122" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="54" t="s">
-        <v>462</v>
-      </c>
-      <c r="B122" s="47" t="s">
-        <v>464</v>
-      </c>
-      <c r="C122" s="48"/>
-      <c r="D122" s="49" t="s">
-        <v>467</v>
-      </c>
-      <c r="E122" s="49" t="s">
-        <v>469</v>
-      </c>
-      <c r="F122" s="49" t="s">
-        <v>471</v>
-      </c>
-      <c r="G122" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H122" s="49"/>
-      <c r="I122" s="50"/>
-      <c r="J122" s="48"/>
-    </row>
-    <row r="123" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="54" t="s">
-        <v>463</v>
-      </c>
-      <c r="B123" s="47" t="s">
-        <v>474</v>
-      </c>
-      <c r="C123" s="48"/>
-      <c r="D123" s="49" t="s">
-        <v>473</v>
-      </c>
-      <c r="E123" s="49" t="s">
-        <v>469</v>
-      </c>
-      <c r="F123" s="49" t="s">
-        <v>471</v>
-      </c>
-      <c r="G123" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H123" s="49"/>
-      <c r="I123" s="50"/>
-      <c r="J123" s="48"/>
-    </row>
-    <row r="124" spans="1:10" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="B124" s="42"/>
-      <c r="C124" s="41"/>
-      <c r="D124" s="42"/>
-      <c r="E124" s="42"/>
-      <c r="F124" s="42"/>
-      <c r="G124" s="42"/>
-      <c r="H124" s="42"/>
-      <c r="I124" s="44"/>
-      <c r="J124" s="41"/>
-    </row>
-    <row r="125" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J120" s="27"/>
+    </row>
+    <row r="121" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B121" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C121" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D121" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="E121" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="F121" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="G121" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" s="24"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="27"/>
+    </row>
+    <row r="122" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B122" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="C122" s="27"/>
+      <c r="D122" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="E122" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="F122" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="G122" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" s="24"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="27"/>
+    </row>
+    <row r="123" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B123" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="C123" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D123" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="E123" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F123" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="G123" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" s="24"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="27"/>
+    </row>
+    <row r="124" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B124" s="44" t="s">
+        <v>378</v>
+      </c>
+      <c r="C124" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D124" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="E124" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F124" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="G124" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" s="46"/>
+      <c r="I124" s="50"/>
+      <c r="J124" s="45"/>
+    </row>
+    <row r="125" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B125" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="C125" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="B125" s="44" t="s">
+        <v>375</v>
+      </c>
+      <c r="C125" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="D125" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="E125" s="29" t="s">
-        <v>290</v>
-      </c>
-      <c r="F125" s="29" t="s">
-        <v>290</v>
-      </c>
-      <c r="G125" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H125" s="27"/>
-      <c r="I125" s="12"/>
-      <c r="J125" s="30"/>
+      <c r="D125" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="E125" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F125" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="G125" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H125" s="46"/>
+      <c r="I125" s="50"/>
+      <c r="J125" s="45"/>
     </row>
     <row r="126" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B126" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="C126" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="B126" s="44" t="s">
+        <v>376</v>
+      </c>
+      <c r="C126" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="D126" s="29" t="s">
+      <c r="D126" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="E126" s="29" t="s">
-        <v>289</v>
-      </c>
-      <c r="F126" s="29" t="s">
-        <v>289</v>
-      </c>
-      <c r="G126" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H126" s="27"/>
-      <c r="I126" s="12"/>
-      <c r="J126" s="30"/>
-    </row>
-    <row r="127" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="E126" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="F126" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="G126" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H126" s="46"/>
+      <c r="I126" s="50"/>
+      <c r="J126" s="45"/>
+    </row>
+    <row r="127" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B127" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="C127" s="30"/>
-      <c r="D127" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="E127" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="F127" s="29" t="s">
-        <v>288</v>
-      </c>
-      <c r="G127" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H127" s="27"/>
-      <c r="I127" s="12"/>
-      <c r="J127" s="30"/>
+        <v>365</v>
+      </c>
+      <c r="B127" s="44" t="s">
+        <v>377</v>
+      </c>
+      <c r="C127" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D127" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="E127" s="49" t="s">
+        <v>382</v>
+      </c>
+      <c r="F127" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="G127" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H127" s="46"/>
+      <c r="I127" s="50"/>
+      <c r="J127" s="45"/>
     </row>
     <row r="128" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B128" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="C128" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="B128" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C128" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="D128" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="E128" s="29" t="s">
+      <c r="D128" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="E128" s="49" t="s">
+        <v>386</v>
+      </c>
+      <c r="F128" s="49" t="s">
+        <v>387</v>
+      </c>
+      <c r="G128" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H128" s="46"/>
+      <c r="I128" s="50"/>
+      <c r="J128" s="45"/>
+    </row>
+    <row r="129" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B129" s="44" t="s">
+        <v>388</v>
+      </c>
+      <c r="C129" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D129" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="E129" s="49" t="s">
+        <v>390</v>
+      </c>
+      <c r="F129" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="F128" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="G128" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H128" s="27"/>
-      <c r="I128" s="12"/>
-      <c r="J128" s="30"/>
-    </row>
-    <row r="129" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B129" s="47" t="s">
-        <v>382</v>
-      </c>
-      <c r="C129" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="D129" s="29" t="s">
-        <v>383</v>
-      </c>
-      <c r="E129" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="F129" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="G129" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H129" s="49"/>
-      <c r="I129" s="53"/>
-      <c r="J129" s="48"/>
-    </row>
-    <row r="130" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B130" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="C130" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="D130" s="29" t="s">
-        <v>384</v>
-      </c>
-      <c r="E130" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="F130" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="G130" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H130" s="49"/>
-      <c r="I130" s="53"/>
-      <c r="J130" s="48"/>
-    </row>
-    <row r="131" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B131" s="47" t="s">
-        <v>380</v>
-      </c>
-      <c r="C131" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="D131" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="E131" s="29" t="s">
-        <v>385</v>
-      </c>
-      <c r="F131" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="G131" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H131" s="49"/>
-      <c r="I131" s="53"/>
-      <c r="J131" s="48"/>
-    </row>
-    <row r="132" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B132" s="47" t="s">
-        <v>381</v>
-      </c>
-      <c r="C132" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="D132" s="29" t="s">
-        <v>387</v>
-      </c>
-      <c r="E132" s="52" t="s">
-        <v>386</v>
-      </c>
-      <c r="F132" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="G132" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H132" s="49"/>
-      <c r="I132" s="53"/>
-      <c r="J132" s="48"/>
-    </row>
-    <row r="133" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B133" s="47" t="s">
-        <v>388</v>
-      </c>
-      <c r="C133" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="D133" s="29" t="s">
-        <v>389</v>
-      </c>
-      <c r="E133" s="52" t="s">
-        <v>390</v>
-      </c>
-      <c r="F133" s="52" t="s">
-        <v>391</v>
-      </c>
-      <c r="G133" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H133" s="49"/>
-      <c r="I133" s="53"/>
-      <c r="J133" s="48"/>
-    </row>
-    <row r="134" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B134" s="47" t="s">
-        <v>392</v>
-      </c>
-      <c r="C134" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="D134" s="29" t="s">
-        <v>393</v>
-      </c>
-      <c r="E134" s="52" t="s">
-        <v>394</v>
-      </c>
-      <c r="F134" s="52" t="s">
-        <v>286</v>
-      </c>
-      <c r="G134" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H134" s="49"/>
-      <c r="I134" s="53"/>
-      <c r="J134" s="48"/>
+      <c r="G129" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H129" s="46"/>
+      <c r="I129" s="50"/>
+      <c r="J129" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5558,7 +5466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -5574,10 +5482,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -5604,7 +5512,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5612,7 +5520,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -5620,7 +5528,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -5628,7 +5536,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -5636,7 +5544,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5644,7 +5552,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -5652,7 +5560,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -5660,7 +5568,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -5668,12 +5576,12 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
@@ -5681,33 +5589,33 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>430</v>
-      </c>
-      <c r="C17" s="55">
+        <v>426</v>
+      </c>
+      <c r="C17" s="52">
         <v>1359037</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>431</v>
-      </c>
-      <c r="C18" s="56">
+        <v>427</v>
+      </c>
+      <c r="C18" s="53">
         <v>1359038</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>432</v>
-      </c>
-      <c r="C19" s="56">
+        <v>428</v>
+      </c>
+      <c r="C19" s="53">
         <v>1159032</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>433</v>
-      </c>
-      <c r="C20" s="56">
+        <v>429</v>
+      </c>
+      <c r="C20" s="53">
         <v>1359035</v>
       </c>
     </row>
